--- a/Resultados2Bim.xlsx
+++ b/Resultados2Bim.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="71">
   <si>
     <t>nomeAlgoritimo</t>
   </si>
@@ -233,9 +233,6 @@
     <t>Soma de round(avg(d.quantidadeComparacoes))</t>
   </si>
   <si>
-    <t>Total geral</t>
-  </si>
-  <si>
     <t>nomeAlgoritimo2</t>
   </si>
   <si>
@@ -243,13 +240,28 @@
   </si>
   <si>
     <t>(Vários itens)</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Modo</t>
+  </si>
+  <si>
+    <t>Quantidade Comparacoes</t>
+  </si>
+  <si>
+    <t>Quantidade Trocas</t>
+  </si>
+  <si>
+    <t>Tempo Execucao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,13 +473,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -486,13 +498,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,12 +523,23 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Resultados2Bim.xlsx]Plan1!Tabela dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -548,6 +571,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -562,31 +586,38 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$A$7:$A$9</c:f>
+              <c:f>Plan1!$A$7:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Ordenação BubbleSort</c:v>
+                  <c:v>Busca Binaria</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ordenação Seleção</c:v>
+                  <c:v>Busca Linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Busca Linear Sentinela</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$B$7:$B$9</c:f>
+              <c:f>Plan1!$B$7:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>499850010</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500049990</c:v>
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,31 +637,38 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$A$7:$A$9</c:f>
+              <c:f>Plan1!$A$7:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Ordenação BubbleSort</c:v>
+                  <c:v>Busca Binaria</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ordenação Seleção</c:v>
+                  <c:v>Busca Linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Busca Linear Sentinela</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$C$7:$C$9</c:f>
+              <c:f>Plan1!$C$7:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>250185990</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99870</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,62 +688,85 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Plan1!$A$7:$A$9</c:f>
+              <c:f>Plan1!$A$7:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Ordenação BubbleSort</c:v>
+                  <c:v>Busca Binaria</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ordenação Seleção</c:v>
+                  <c:v>Busca Linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Busca Linear Sentinela</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$D$7:$D$9</c:f>
+              <c:f>Plan1!$D$7:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>210</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="107656320"/>
-        <c:axId val="107657856"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="37357440"/>
+        <c:axId val="37358976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="107656320"/>
+        <c:axId val="37357440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107657856"/>
+        <c:crossAx val="37358976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107657856"/>
+        <c:axId val="37358976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107656320"/>
+        <c:crossAx val="37357440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -713,8 +774,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -846,6 +910,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -1512,8 +1581,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A5:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
@@ -1587,11 +1656,11 @@
         <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item h="1" x="1"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item x="6"/>
-        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
         <item h="1" x="8"/>
         <item t="default"/>
       </items>
@@ -1600,12 +1669,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
-      <x v="6"/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -1747,6 +1819,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1781,6 +1854,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -1956,30 +2030,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +2061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1995,12 +2069,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2014,46 +2088,60 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7">
-        <v>499850010</v>
+        <v>390</v>
       </c>
       <c r="C7" s="7">
-        <v>250185990</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
-        <v>500049990</v>
+        <v>100000</v>
       </c>
       <c r="C8" s="7">
-        <v>99870</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7">
-        <v>999900000</v>
+        <v>100020</v>
       </c>
       <c r="C9" s="7">
-        <v>250285860</v>
+        <v>0</v>
       </c>
       <c r="D9" s="7">
-        <v>310</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="7">
+        <v>200410</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2063,14 +2151,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
@@ -2080,30 +2166,30 @@
     <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" thickBot="1">
+    <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2126,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" thickBot="1">
+    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2149,7 +2235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2172,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27" thickBot="1">
+    <row r="5" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2195,7 +2281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" thickBot="1">
+    <row r="6" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27" thickBot="1">
+    <row r="7" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2241,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27" thickBot="1">
+    <row r="8" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2264,7 +2350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27" thickBot="1">
+    <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +2373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2310,7 +2396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27" thickBot="1">
+    <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2333,7 +2419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27" thickBot="1">
+    <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2356,7 +2442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" thickBot="1">
+    <row r="13" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2379,7 +2465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" thickBot="1">
+    <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2402,7 +2488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" thickBot="1">
+    <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2425,7 +2511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" thickBot="1">
+    <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2448,7 +2534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27" thickBot="1">
+    <row r="17" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2471,7 +2557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1">
+    <row r="18" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2494,7 +2580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" thickBot="1">
+    <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -2517,7 +2603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27" thickBot="1">
+    <row r="20" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" thickBot="1">
+    <row r="21" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2563,7 +2649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27" thickBot="1">
+    <row r="22" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2586,7 +2672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27" thickBot="1">
+    <row r="23" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" thickBot="1">
+    <row r="24" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
@@ -2632,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27" thickBot="1">
+    <row r="25" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2655,7 +2741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27" thickBot="1">
+    <row r="26" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2678,7 +2764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" thickBot="1">
+    <row r="27" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2701,7 +2787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27" thickBot="1">
+    <row r="28" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -2724,7 +2810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" thickBot="1">
+    <row r="29" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -2747,7 +2833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" thickBot="1">
+    <row r="30" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
@@ -2770,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" thickBot="1">
+    <row r="31" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
@@ -2793,7 +2879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="30" thickBot="1">
+    <row r="32" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
@@ -2816,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" thickBot="1">
+    <row r="33" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -2839,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30" thickBot="1">
+    <row r="34" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
@@ -2862,7 +2948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" thickBot="1">
+    <row r="35" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>6</v>
       </c>
@@ -2885,7 +2971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" thickBot="1">
+    <row r="36" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
@@ -2908,7 +2994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" thickBot="1">
+    <row r="37" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>6</v>
       </c>
@@ -2931,7 +3017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27" thickBot="1">
+    <row r="38" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
@@ -2954,7 +3040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="27" thickBot="1">
+    <row r="39" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -2977,7 +3063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="27" thickBot="1">
+    <row r="40" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -3000,7 +3086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="27" thickBot="1">
+    <row r="41" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
@@ -3023,7 +3109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="27" thickBot="1">
+    <row r="42" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -3046,7 +3132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="27" thickBot="1">
+    <row r="43" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>12</v>
       </c>
@@ -3069,7 +3155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="27" thickBot="1">
+    <row r="44" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>12</v>
       </c>
@@ -3092,7 +3178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="27" thickBot="1">
+    <row r="45" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>12</v>
       </c>
@@ -3115,7 +3201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="27" thickBot="1">
+    <row r="46" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
@@ -3138,7 +3224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="39.75" thickBot="1">
+    <row r="47" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>13</v>
       </c>
@@ -3161,7 +3247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="39.75" thickBot="1">
+    <row r="48" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -3184,7 +3270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="39.75" thickBot="1">
+    <row r="49" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
@@ -3207,7 +3293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="39.75" thickBot="1">
+    <row r="50" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -3230,7 +3316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="39.75" thickBot="1">
+    <row r="51" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>13</v>
       </c>
@@ -3253,7 +3339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="39.75" thickBot="1">
+    <row r="52" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -3276,7 +3362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="39.75" thickBot="1">
+    <row r="53" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
@@ -3299,7 +3385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="39.75" thickBot="1">
+    <row r="54" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>13</v>
       </c>
@@ -3322,7 +3408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="39.75" thickBot="1">
+    <row r="55" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>13</v>
       </c>
@@ -3345,7 +3431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="52.5" thickBot="1">
+    <row r="56" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -3368,7 +3454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="52.5" thickBot="1">
+    <row r="57" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -3391,7 +3477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="52.5" thickBot="1">
+    <row r="58" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
@@ -3414,7 +3500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="52.5" thickBot="1">
+    <row r="59" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -3437,7 +3523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="52.5" thickBot="1">
+    <row r="60" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
@@ -3460,7 +3546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="52.5" thickBot="1">
+    <row r="61" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>14</v>
       </c>
@@ -3483,7 +3569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="52.5" thickBot="1">
+    <row r="62" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>14</v>
       </c>
@@ -3506,7 +3592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="52.5" thickBot="1">
+    <row r="63" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="52.5" thickBot="1">
+    <row r="64" spans="1:7" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>14</v>
       </c>
@@ -3552,7 +3638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="39.75" thickBot="1">
+    <row r="65" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +3661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="39.75" thickBot="1">
+    <row r="66" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
@@ -3598,7 +3684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="39.75" thickBot="1">
+    <row r="67" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
@@ -3621,7 +3707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="39.75" thickBot="1">
+    <row r="68" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>15</v>
       </c>
@@ -3644,7 +3730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="39.75" thickBot="1">
+    <row r="69" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>15</v>
       </c>
@@ -3667,7 +3753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="39.75" thickBot="1">
+    <row r="70" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>15</v>
       </c>
@@ -3690,7 +3776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="39.75" thickBot="1">
+    <row r="71" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>15</v>
       </c>
@@ -3713,7 +3799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="39.75" thickBot="1">
+    <row r="72" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>15</v>
       </c>
@@ -3736,7 +3822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="39.75" thickBot="1">
+    <row r="73" spans="1:7" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>15</v>
       </c>
@@ -3771,16 +3857,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="52.5" thickBot="1">
+    <row r="1" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3800,7 +3886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" thickBot="1">
+    <row r="2" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3820,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" thickBot="1">
+    <row r="3" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -3840,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" thickBot="1">
+    <row r="4" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -3860,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" thickBot="1">
+    <row r="5" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3880,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" thickBot="1">
+    <row r="6" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3900,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" thickBot="1">
+    <row r="7" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3920,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" thickBot="1">
+    <row r="8" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3940,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" thickBot="1">
+    <row r="9" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -3960,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" thickBot="1">
+    <row r="10" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -3980,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27" thickBot="1">
+    <row r="11" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -4000,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27" thickBot="1">
+    <row r="12" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -4020,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27" thickBot="1">
+    <row r="13" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4040,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" thickBot="1">
+    <row r="14" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4060,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" thickBot="1">
+    <row r="15" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4080,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27" thickBot="1">
+    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -4100,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" thickBot="1">
+    <row r="17" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -4120,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27" thickBot="1">
+    <row r="18" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
@@ -4140,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27" thickBot="1">
+    <row r="19" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -4160,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="39.75" thickBot="1">
+    <row r="20" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -4180,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="39.75" thickBot="1">
+    <row r="21" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -4200,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="39.75" thickBot="1">
+    <row r="22" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -4220,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="39.75" thickBot="1">
+    <row r="23" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -4240,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="39.75" thickBot="1">
+    <row r="24" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -4260,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="39.75" thickBot="1">
+    <row r="25" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -4280,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39.75" thickBot="1">
+    <row r="26" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -4300,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="39.75" thickBot="1">
+    <row r="27" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4320,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="39.75" thickBot="1">
+    <row r="28" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -4346,14 +4432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="9" bestFit="1" customWidth="1"/>
@@ -4367,24 +4453,24 @@
     <col min="12" max="12" width="7.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="15.75" thickBot="1"/>
-    <row r="2" spans="3:12" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="3:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="3:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
@@ -4404,7 +4490,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="24"/>
     </row>
-    <row r="4" spans="3:12" ht="15.75" thickBot="1">
+    <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
@@ -4424,7 +4510,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="28"/>
     </row>
-    <row r="5" spans="3:12" ht="15.75" thickBot="1">
+    <row r="5" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
@@ -4456,7 +4542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="15.75" thickBot="1">
+    <row r="6" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
@@ -4488,7 +4574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="15.75" thickBot="1">
+    <row r="7" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
@@ -4520,7 +4606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="15.75" thickBot="1">
+    <row r="8" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
@@ -4552,7 +4638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="15.75" thickBot="1">
+    <row r="9" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -4564,23 +4650,23 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="3:12" ht="15.75" thickBot="1">
+    <row r="10" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="3:12" ht="15.75" thickBot="1">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
@@ -4600,7 +4686,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="24"/>
     </row>
-    <row r="12" spans="3:12" ht="15.75" thickBot="1">
+    <row r="12" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
@@ -4620,7 +4706,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="28"/>
     </row>
-    <row r="13" spans="3:12" ht="15.75" customHeight="1" thickBot="1">
+    <row r="13" spans="3:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
@@ -4652,7 +4738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="15.75" customHeight="1" thickBot="1">
+    <row r="14" spans="3:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
@@ -4684,7 +4770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="15.75" thickBot="1">
+    <row r="15" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="3:12" ht="15.75" thickBot="1">
+    <row r="16" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
         <v>11</v>
       </c>
@@ -4748,7 +4834,7 @@
         <v>21280</v>
       </c>
     </row>
-    <row r="17" spans="3:12" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="3:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="12"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -4760,23 +4846,23 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="3:12" ht="15.75" thickBot="1">
+    <row r="18" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="3:12" ht="15.75" thickBot="1">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
         <v>21</v>
       </c>
@@ -4796,7 +4882,7 @@
       <c r="K19" s="22"/>
       <c r="L19" s="24"/>
     </row>
-    <row r="20" spans="3:12" ht="15.75" thickBot="1">
+    <row r="20" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
@@ -4816,7 +4902,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="3:12" ht="15.75" thickBot="1">
+    <row r="21" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="10" t="s">
         <v>24</v>
       </c>
@@ -4848,7 +4934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="15.75" thickBot="1">
+    <row r="22" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="11" t="s">
         <v>8</v>
       </c>
@@ -4880,7 +4966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="15.75" thickBot="1">
+    <row r="23" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="11" t="s">
         <v>10</v>
       </c>
@@ -4912,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:12" ht="15.75" thickBot="1">
+    <row r="24" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="11" t="s">
         <v>11</v>
       </c>
@@ -4946,6 +5032,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
@@ -4953,20 +5053,6 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:L20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4974,14 +5060,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -4991,7 +5077,7 @@
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
@@ -5011,7 +5097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
@@ -5031,7 +5117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
@@ -5051,7 +5137,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
@@ -5071,7 +5157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
@@ -5091,7 +5177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
@@ -5111,7 +5197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>12</v>
       </c>
@@ -5131,7 +5217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
@@ -5151,7 +5237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5257,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
@@ -5191,7 +5277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>6</v>
       </c>
@@ -5211,7 +5297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
@@ -5231,7 +5317,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
@@ -5251,7 +5337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>12</v>
       </c>
@@ -5271,7 +5357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
@@ -5291,7 +5377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>12</v>
       </c>
@@ -5311,7 +5397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>13</v>
       </c>
@@ -5331,7 +5417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
@@ -5351,7 +5437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>13</v>
       </c>
@@ -5371,7 +5457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>6</v>
       </c>
@@ -5391,7 +5477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>6</v>
       </c>
@@ -5411,7 +5497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>6</v>
       </c>
@@ -5431,7 +5517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +5537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>12</v>
       </c>
@@ -5471,7 +5557,7 @@
         <v>207033324241638</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>12</v>
       </c>
@@ -5491,7 +5577,7 @@
         <v>322366674741109</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>13</v>
       </c>
@@ -5511,7 +5597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>13</v>
       </c>
@@ -5531,7 +5617,7 @@
         <v>201566664377848</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>13</v>
       </c>
